--- a/方法與關鍵統整.xlsx
+++ b/方法與關鍵統整.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raymo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raymo\Desktop\SCU work\資料分析軟體與應用\final report\moral_judgment_law_utility_study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB4C955-B5C3-4FBF-96F1-C3F970FCBDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F744AD-1D9D-490C-9B7F-5D369F71F456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,9 +91,6 @@
     <t>評估個人因素（宗教、政治）在控制環境後的淨效應。</t>
   </si>
   <si>
-    <t>數據：Pseudo R² 僅 0.0004。反直覺發現：宗教與政治進步程度均與守法呈「負相關」（OR &lt; 1.0）。</t>
-  </si>
-  <si>
     <t>階層線性模型 (HLM)</t>
   </si>
   <si>
@@ -185,13 +182,86 @@
   </si>
   <si>
     <t>觀測增加時，極端人格比例從 100% 降至 55%</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>數據：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Pseudo R² </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>僅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.0002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。反直覺發現：宗教與政治進步程度均與守法呈「負相關」（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OR &lt; 1.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>）。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -226,6 +296,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -247,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -260,6 +345,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -394,6 +482,58 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
         <color theme="0"/>
         <name val="Arial"/>
         <family val="2"/>
@@ -401,56 +541,28 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF6F8F9"/>
+          <bgColor rgb="FFF6F8F9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF356854"/>
+          <bgColor rgb="FF356854"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border>
@@ -468,37 +580,13 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF6F8F9"/>
-          <bgColor rgb="FFF6F8F9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF356854"/>
-          <bgColor rgb="FF356854"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="方法統整-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" size="0" dxfId="12"/>
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="secondRowStripe" dxfId="13"/>
+      <tableStyleElement type="wholeTable" size="0" dxfId="15"/>
+      <tableStyleElement type="headerRow" dxfId="14"/>
+      <tableStyleElement type="firstRowStripe" dxfId="13"/>
+      <tableStyleElement type="secondRowStripe" dxfId="12"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -513,24 +601,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="統計分析方法" displayName="統計分析方法" ref="A1:D9" headerRowDxfId="7" dataDxfId="5" totalsRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="統計分析方法" displayName="統計分析方法" ref="A1:D9" headerRowDxfId="11" dataDxfId="10" totalsRowDxfId="9">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="分析層級" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="統計手法" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="使用目的 (Why we use it)" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="關鍵指標與學術貢獻 (Verified Data)" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="分析層級" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="統計手法" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="使用目的 (Why we use it)" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="關鍵指標與學術貢獻 (Verified Data)" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="方法統整-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CCCA5CA3-DBC1-48A5-A794-1F7D294B79E1}" name="表格2" displayName="表格2" ref="A1:C7" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CCCA5CA3-DBC1-48A5-A794-1F7D294B79E1}" name="表格2" displayName="表格2" ref="A1:C7" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:C7" xr:uid="{CCCA5CA3-DBC1-48A5-A794-1F7D294B79E1}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8DFB042F-7783-48A9-A937-3C65BAA43801}" name="核心提問" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{92DB253A-367F-406F-BDFB-64EBE674BDEA}" name="實證回答" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{8FE9F47D-59BC-467E-B8DD-E360D3B21499}" name="關鍵統計證據" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{8DFB042F-7783-48A9-A937-3C65BAA43801}" name="核心提問" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{92DB253A-367F-406F-BDFB-64EBE674BDEA}" name="實證回答" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{8FE9F47D-59BC-467E-B8DD-E360D3B21499}" name="關鍵統計證據" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="方法統整-style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -741,10 +829,10 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="17.5"/>
   <cols>
     <col min="1" max="1" width="20.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.7265625" style="2" bestFit="1" customWidth="1"/>
@@ -753,7 +841,7 @@
     <col min="5" max="16384" width="12.6328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -767,7 +855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="35">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -781,7 +869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -795,7 +883,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4">
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
@@ -806,7 +894,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -820,51 +908,51 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="18">
       <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="3" t="s">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -888,7 +976,7 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="17.5"/>
   <cols>
     <col min="1" max="1" width="28.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.90625" style="2" bestFit="1" customWidth="1"/>
@@ -896,81 +984,81 @@
     <col min="4" max="16384" width="12.6328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="5" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="5" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="5" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
